--- a/Data/Transitions/19231925Translation.xlsx
+++ b/Data/Transitions/19231925Translation.xlsx
@@ -28,7 +28,7 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.23030650243483242}</t>
+    <t>{486.0: 0.23351728144060413}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -43,7 +43,7 @@
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.9013317191283293}</t>
+    <t>{61.0: 0.900012268433321}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -145,7 +145,7 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9914243102162565}</t>
+    <t>{71.0: 0.9914200447649838}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -172,7 +172,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{80.0: 1.0, 757.0: 0.13017306245297217}</t>
+    <t>{80.0: 1.0, 757.0: 0.16313059877416314}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -205,7 +205,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 104.0: 0.03796203796203796}</t>
+    <t>{91.0: 1.0, 104.0: 0.03568075117370892}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.9199943954042314}</t>
+    <t>{98.0: 0.9189265937810592}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,13 +244,13 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.962037962037962}</t>
+    <t>{104.0: 0.964319248826291}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 543.0: 0.0069992364469330616}</t>
+    <t>{107.0: 1.0, 543.0: 0.0067138671875}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -301,7 +301,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -361,10 +361,10 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6542727589815138}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.15926055109870946}</t>
+    <t>{182.0: 0.653232577665827}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.15973971452560873}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -379,7 +379,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9985580389329488}</t>
+    <t>{204.0: 0.9985426989215972}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -412,7 +412,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{215.0: 0.9854413102820746}</t>
+    <t>{215.0: 0.985523637186157}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9165579552798229}</t>
+    <t>{246.0: 0.9166428902339058}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -502,7 +505,7 @@
     <t>{250.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.8056260087618169}</t>
+    <t>{251.0: 0.8169381107491857}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -541,13 +544,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8354978354978355}</t>
+    <t>{264.0: 0.832411620581029}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.0986682808716707, 887.0: 0.1831615433731643}</t>
+    <t>{61.0: 0.09998773156667894, 887.0: 0.18437241759250758}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -568,7 +571,7 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9948580830933772}</t>
+    <t>{275.0: 0.9948822927328557}</t>
   </si>
   <si>
     <t>{276.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977}</t>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -589,7 +592,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.18646668991977677}</t>
+    <t>{182.0: 0.18702770780856423}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -616,7 +619,7 @@
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0}</t>
@@ -637,7 +640,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.674955970412117}</t>
+    <t>{298.0: 0.6710160427807487}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -652,7 +655,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778}</t>
+    <t>{303.0: 0.9136242208370436}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -670,7 +673,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0014419610670511895}</t>
+    <t>{309.0: 1.0, 204.0: 0.001457301078402798}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -700,13 +703,10 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{398.0: 1.0, 98.0: 0.08000560459576853}</t>
+    <t>{398.0: 1.0, 98.0: 0.0810734062189408}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -775,7 +775,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
+    <t>{423.0: 0.9963346269943941}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -811,7 +811,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -823,19 +823,19 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006545006545006545}</t>
+    <t>{441.0: 1.0, 782.0: 0.0066929133858267716}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 1.0, 291.0: 0.06846646256610076}</t>
+    <t>{443.0: 1.0, 291.0: 0.06869589500139626}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.841880929465145}</t>
+    <t>{476.0: 0.8402999583391195}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{482.0: 1.0}</t>
@@ -865,7 +865,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.7696934975651676}</t>
+    <t>{486.0: 0.7664827185593959}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -880,13 +880,13 @@
     <t>{490.0: 1.0}</t>
   </si>
   <si>
-    <t>{491.0: 1.0, 492.0: 0.011442530213422474}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9885574697865775}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395}</t>
+    <t>{491.0: 1.0, 492.0: 0.011577235772357723}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9884227642276423}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
@@ -946,10 +946,10 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8956154017360338}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
+    <t>{534.0: 0.8960549645390071}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
   </si>
   <si>
     <t>{536.0: 1.0}</t>
@@ -970,7 +970,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.993000763553067}</t>
+    <t>{543.0: 0.9932861328125}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -1024,10 +1024,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9883316142341413}</t>
-  </si>
-  <si>
-    <t>{581.0: 1.0, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.9882976659985776}</t>
+  </si>
+  <si>
+    <t>{581.0: 1.0, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{632.0: 1.0, 251.0: 0.19437399123818308}</t>
+    <t>{632.0: 1.0, 251.0: 0.18306188925081432}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1237,7 +1237,7 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.1358224727016555, 857.0: 0.06778087279480037}</t>
+    <t>{298.0: 0.13746880570409983, 857.0: 0.06782585611892752}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1261,7 +1261,7 @@
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 1.0, 246.0: 0.00657298277425204}</t>
+    <t>{741.0: 1.0, 246.0: 0.006566285520208309}</t>
   </si>
   <si>
     <t>{742.0: 1.0}</t>
@@ -1330,7 +1330,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18922155688622755, 476.0: 0.15811907053485494, 534.0: 0.10438459826396616}</t>
+    <t>{298.0: 0.19151515151515153, 476.0: 0.15970004166088042, 534.0: 0.1039450354609929}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1339,7 +1339,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 1.0, 580.0: 0.01166838576585869}</t>
+    <t>{752.0: 1.0, 580.0: 0.011702334001422383}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1354,7 +1354,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.8698269375470279}</t>
+    <t>{757.0: 0.8368694012258369}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1363,10 +1363,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.0015321154979375368}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9984678845020625}</t>
+    <t>{760.0: 1.0, 761.0: 0.0015297717109908214}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9984702282890092}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1384,7 +1384,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1399,7 +1399,7 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818}</t>
   </si>
   <si>
     <t>{773.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7756341095382191}</t>
+    <t>{782.0: 0.7705424927926521}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1447,7 +1447,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 1.0, 246.0: 0.07686906194592512}</t>
+    <t>{789.0: 1.0, 246.0: 0.07679082424588585}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1471,7 +1471,7 @@
     <t>{837.0: 1.0}</t>
   </si>
   <si>
-    <t>{838.0: 1.0, 423.0: 0.0036780614452617912}</t>
+    <t>{838.0: 1.0, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1486,7 +1486,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 1.0, 264.0: 0.1645021645021645}</t>
+    <t>{843.0: 1.0, 264.0: 0.16758837941897095}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1507,7 +1507,7 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
   </si>
   <si>
     <t>{852.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9322191272051996}</t>
+    <t>{857.0: 0.9321741438810724}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1552,7 +1552,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.8168384566268357}</t>
+    <t>{887.0: 0.8156275824074924}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 1.0, 215.0: 0.014558689717925387}</t>
+    <t>{897.0: 1.0, 215.0: 0.014476362813843022}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1591,7 +1591,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{907.0: 1.0, 930.0: 0.011826880543850254}</t>
+    <t>{907.0: 1.0, 930.0: 0.012177289833880672}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1627,7 +1627,7 @@
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 275.0: 0.005141916906622789}</t>
+    <t>{921.0: 1.0, 275.0: 0.00511770726714432}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
@@ -1648,10 +1648,10 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 1.0, 930.0: 0.3073126440528019}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.6808604754033478}</t>
+    <t>{929.0: 1.0, 930.0: 0.31641776733705684}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.6714049428290625}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1714,7 +1714,7 @@
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.21782088391677432}</t>
+    <t>{782.0: 0.22276459382152106}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1852,7 +1852,7 @@
     <t>{581.0: 0.9359904975584005, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
-    <t>{632.0: 0.8373528844298669, 251.0: 0.16264711557013312}</t>
+    <t>{632.0: 0.852648138437336, 251.0: 0.14735186156266386}</t>
   </si>
   <si>
     <t>{298.0: 0.7904879048790487, 857.0: 0.2095120951209512}</t>
@@ -1864,10 +1864,10 @@
     <t>{741.0: 0.9831149927219797, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395054, 534.0: 0.19648093841642228}</t>
-  </si>
-  <si>
-    <t>{752.0: 0.9259410801963993, 580.0: 0.07405891980360066}</t>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395057, 534.0: 0.19648093841642228}</t>
+  </si>
+  <si>
+    <t>{752.0: 0.9263928426189508, 580.0: 0.07360715738104921}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
@@ -1882,16 +1882,16 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 0.9882429784454605, 493.0: 0.011757021554539518}</t>
+    <t>{772.0: 0.9882429784454605, 493.0: 0.011757021554539514}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9435422883765255, 246.0: 0.05645771162347449}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9922515952597994, 423.0: 0.007748404740200547}</t>
+    <t>{789.0: 0.94360671992941, 246.0: 0.05639328007058986}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9922515952597996, 423.0: 0.007748404740200546}</t>
   </si>
   <si>
     <t>{843.0: 0.7039327232253277, 264.0: 0.29606727677467226}</t>
@@ -1909,7 +1909,7 @@
     <t>{897.0: 0.9951204635559622, 215.0: 0.004879536444037816}</t>
   </si>
   <si>
-    <t>{907.0: 0.9115906717716672, 930.0: 0.08840932822833275}</t>
+    <t>{907.0: 0.9121715076071922, 930.0: 0.08782849239280774}</t>
   </si>
   <si>
     <t>{921.0: 0.993611040122668, 275.0: 0.006388959877331971}</t>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3989,29 +3989,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>588</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>588</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4044,29 +4044,29 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>589</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>589</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4187,51 +4187,51 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>590</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>590</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>591</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4286,29 +4286,29 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>592</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>592</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4319,29 +4319,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>593</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>593</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4363,29 +4363,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>585</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>585</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4462,29 +4462,29 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>594</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>594</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4539,29 +4539,29 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>595</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>208</v>
+        <v>595</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4594,29 +4594,29 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>596</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>596</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4660,29 +4660,29 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>597</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
